--- a/biology/Zoologie/Hydrometridae/Hydrometridae.xlsx
+++ b/biology/Zoologie/Hydrometridae/Hydrometridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hydrometridae sont une famille d'insectes hémiptères du sous-ordre des hétéroptères (punaises). Comme les Gerridae (avec lesquels il ne faut pas les confondre), ils peuvent se déplacer à la surface des eaux calmes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hydrometridae sont des punaises semi-aquatiques tout en longueur, très fines. Elles ont des antennes visibles, à 4 articles. Leur scutellum n'est pas visible par en dessus, car il est recouvert par le pronotum. La tête est distinctement prolongée en avant et en arrière des yeux. La partie postérieure aux yeux est toujours supérieure au diamètre d'un œil. Des buccules recouvrent la base du rostre. Les ailes antérieures, dont le développement est variable, ont trois cellules fermées. Les tarses sont au nombre de 3, et les griffes sont placées avant l'apex, sauf chez les Limnobatodinae. Elles mesurent entre 2.5 et 22 mm de long[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hydrometridae sont des punaises semi-aquatiques tout en longueur, très fines. Elles ont des antennes visibles, à 4 articles. Leur scutellum n'est pas visible par en dessus, car il est recouvert par le pronotum. La tête est distinctement prolongée en avant et en arrière des yeux. La partie postérieure aux yeux est toujours supérieure au diamètre d'un œil. Des buccules recouvrent la base du rostre. Les ailes antérieures, dont le développement est variable, ont trois cellules fermées. Les tarses sont au nombre de 3, et les griffes sont placées avant l'apex, sauf chez les Limnobatodinae. Elles mesurent entre 2.5 et 22 mm de long,. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom des hydromètres, formé de hydro-, « eau  »en grec, et -mètre, « mesure », signifie donc « mesureur d'eau », et renvoie à leur manière de se mouvoir lentement à la surace ou au bord de l'eau.  
-On les rencontre le plus souvent sur le bord des étangs, des ruisseaux marécageux, des fossés, sur les tapis de végétation flottante ou émergente des étangs et des marais. Ils rôdent à la surface ou au bord de l'eau à la recherche d'invertébrés blessés, nouvellement émergés ou morts[3]. 
+On les rencontre le plus souvent sur le bord des étangs, des ruisseaux marécageux, des fossés, sur les tapis de végétation flottante ou émergente des étangs et des marais. Ils rôdent à la surface ou au bord de l'eau à la recherche d'invertébrés blessés, nouvellement émergés ou morts. 
 </t>
         </is>
       </c>
@@ -574,15 +590,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Hydrometridae a été divisée en trois sous-familles:
-Selon ITIS      (2 avril 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La famille Hydrometridae a été divisée en trois sous-familles:
+Selon ITIS      (2 avril 2022) :
 sous-famille Heterocleptinae Villiers, 1948, 5 espèces
 sous-famille Hydrometrinae Billberg, 1820, env. 130 espèces, dont 120 dans le genre Hydrometra
-sous-famille Limnobatodinae Esaki, 1927, 1 espèce
-Liste des sous-familles et des genres
-Selon BioLib                    (2 avril 2022)[5] :
+sous-famille Limnobatodinae Esaki, 1927, 1 espèce</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydrometridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrometridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (2 avril 2022) :
 sous-famille Heterocleptinae Villiers, 1948
 genre Heterocleptes Villiers, 1948
 genre Veliometra Andersen, 1977
@@ -597,8 +649,43 @@
 9 genres fossiles: †Burmametra Huang, Garrouste, Azar, Engel &amp; Nel, 2015,  †Christometra Pêgas, Leal &amp; Damgaard, 2017, †Cretaceometra Nel &amp; Popov, 2000, †Eocenometra Andersen, 1982, †Incertametra Perez Goodwyn, 2002, †Limnacis Germar &amp; Berendt, 1856, †Metrocephala Popov, 1996, †Palaeometra Andersen, 1998, †Protobacillometra Nel &amp; Paicheler, 1993
 sous-famille Limnobatodinae Esaki, 1927
 genre Limnobatodes Hussey, 1925
-Espèces présentes en Europe
-Seules deux espèces sont présentes en Europe: 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydrometridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrometridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules deux espèces sont présentes en Europe: 
 Hydrometra stagnorum
 Hydrometra gracilenta
 </t>
